--- a/output/kruskal_wallis_test/anova_Q19_Idade.xlsx
+++ b/output/kruskal_wallis_test/anova_Q19_Idade.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.53649168986176</v>
+        <v>8.8319027015291</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162505584565617</v>
+        <v>0.0654412295630484</v>
       </c>
     </row>
   </sheetData>
